--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cort-Sstr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cort-Sstr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,25 +79,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Cort</t>
+  </si>
+  <si>
+    <t>Sstr2</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Cort</t>
-  </si>
-  <si>
-    <t>Sstr2</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -549,40 +546,40 @@
         <v>1.444561</v>
       </c>
       <c r="I2">
-        <v>0.9529357361208413</v>
+        <v>0.7789994499509271</v>
       </c>
       <c r="J2">
-        <v>0.9529357361208413</v>
+        <v>0.7789994499509271</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.097952</v>
+        <v>0.213999</v>
       </c>
       <c r="N2">
-        <v>0.293856</v>
+        <v>0.641997</v>
       </c>
       <c r="O2">
-        <v>0.3005609128437177</v>
+        <v>0.5677164163662266</v>
       </c>
       <c r="P2">
-        <v>0.3005609128437177</v>
+        <v>0.5677164163662265</v>
       </c>
       <c r="Q2">
-        <v>0.04716587969066667</v>
+        <v>0.103044869813</v>
       </c>
       <c r="R2">
-        <v>0.4244929172160001</v>
+        <v>0.9274038283170002</v>
       </c>
       <c r="S2">
-        <v>0.2864152347298802</v>
+        <v>0.442250776077402</v>
       </c>
       <c r="T2">
-        <v>0.2864152347298801</v>
+        <v>0.4422507760774019</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -611,10 +608,10 @@
         <v>1.444561</v>
       </c>
       <c r="I3">
-        <v>0.9529357361208413</v>
+        <v>0.7789994499509271</v>
       </c>
       <c r="J3">
-        <v>0.9529357361208413</v>
+        <v>0.7789994499509271</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,10 +626,10 @@
         <v>0.074624</v>
       </c>
       <c r="O3">
-        <v>0.07632669593287049</v>
+        <v>0.06598982527163412</v>
       </c>
       <c r="P3">
-        <v>0.07632669593287048</v>
+        <v>0.06598982527163411</v>
       </c>
       <c r="Q3">
         <v>0.01197765778488889</v>
@@ -641,10 +638,10 @@
         <v>0.107798920064</v>
       </c>
       <c r="S3">
-        <v>0.07273443617446156</v>
+        <v>0.05140603758896076</v>
       </c>
       <c r="T3">
-        <v>0.07273443617446154</v>
+        <v>0.05140603758896076</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -673,10 +670,10 @@
         <v>1.444561</v>
       </c>
       <c r="I4">
-        <v>0.9529357361208413</v>
+        <v>0.7789994499509271</v>
       </c>
       <c r="J4">
-        <v>0.9529357361208413</v>
+        <v>0.7789994499509271</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,28 +682,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.033238</v>
+        <v>0.04845433333333333</v>
       </c>
       <c r="N4">
-        <v>0.099714</v>
+        <v>0.145363</v>
       </c>
       <c r="O4">
-        <v>0.1019891745048543</v>
+        <v>0.1285441543063967</v>
       </c>
       <c r="P4">
-        <v>0.1019891745048543</v>
+        <v>0.1285441543063967</v>
       </c>
       <c r="Q4">
-        <v>0.01600477283933333</v>
+        <v>0.02333174673811111</v>
       </c>
       <c r="R4">
-        <v>0.144042955554</v>
+        <v>0.209985720643</v>
       </c>
       <c r="S4">
-        <v>0.09718912908314027</v>
+        <v>0.1001358254990901</v>
       </c>
       <c r="T4">
-        <v>0.09718912908314026</v>
+        <v>0.1001358254990901</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -735,40 +732,40 @@
         <v>1.444561</v>
       </c>
       <c r="I5">
-        <v>0.9529357361208413</v>
+        <v>0.7789994499509271</v>
       </c>
       <c r="J5">
-        <v>0.9529357361208413</v>
+        <v>0.7789994499509271</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1382913333333333</v>
+        <v>0.01566266666666667</v>
       </c>
       <c r="N5">
-        <v>0.414874</v>
+        <v>0.046988</v>
       </c>
       <c r="O5">
-        <v>0.4243401807522206</v>
+        <v>0.04155137636502391</v>
       </c>
       <c r="P5">
-        <v>0.4243401807522205</v>
+        <v>0.0415513763650239</v>
       </c>
       <c r="Q5">
-        <v>0.06659008892377778</v>
+        <v>0.007541892474222224</v>
       </c>
       <c r="R5">
-        <v>0.5993108003140001</v>
+        <v>0.06787703226800001</v>
       </c>
       <c r="S5">
-        <v>0.4043689225107682</v>
+        <v>0.03236849933305758</v>
       </c>
       <c r="T5">
-        <v>0.4043689225107681</v>
+        <v>0.03236849933305757</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -797,10 +794,10 @@
         <v>1.444561</v>
       </c>
       <c r="I6">
-        <v>0.9529357361208413</v>
+        <v>0.7789994499509271</v>
       </c>
       <c r="J6">
-        <v>0.9529357361208413</v>
+        <v>0.7789994499509271</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,60 +806,60 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.003697666666666667</v>
+        <v>0.07395633333333333</v>
       </c>
       <c r="N6">
-        <v>0.011093</v>
+        <v>0.221869</v>
       </c>
       <c r="O6">
-        <v>0.01134610899956224</v>
+        <v>0.1961982276907187</v>
       </c>
       <c r="P6">
-        <v>0.01134610899956223</v>
+        <v>0.1961982276907187</v>
       </c>
       <c r="Q6">
-        <v>0.001780501685888889</v>
+        <v>0.03561147827877778</v>
       </c>
       <c r="R6">
-        <v>0.016024515173</v>
+        <v>0.3205033045090001</v>
       </c>
       <c r="S6">
-        <v>0.01081211273160514</v>
+        <v>0.1528383114524166</v>
       </c>
       <c r="T6">
-        <v>0.01081211273160514</v>
+        <v>0.1528383114524166</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.4815203333333334</v>
+        <v>0.054895</v>
       </c>
       <c r="H7">
-        <v>1.444561</v>
+        <v>0.164685</v>
       </c>
       <c r="I7">
-        <v>0.9529357361208413</v>
+        <v>0.08880865841952565</v>
       </c>
       <c r="J7">
-        <v>0.9529357361208413</v>
+        <v>0.08880865841952565</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,28 +868,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.02784366666666667</v>
+        <v>0.213999</v>
       </c>
       <c r="N7">
-        <v>0.08353099999999999</v>
+        <v>0.641997</v>
       </c>
       <c r="O7">
-        <v>0.08543692696677482</v>
+        <v>0.5677164163662266</v>
       </c>
       <c r="P7">
-        <v>0.08543692696677481</v>
+        <v>0.5677164163662265</v>
       </c>
       <c r="Q7">
-        <v>0.01340729165455556</v>
+        <v>0.011747475105</v>
       </c>
       <c r="R7">
-        <v>0.120665624891</v>
+        <v>0.105727275945</v>
       </c>
       <c r="S7">
-        <v>0.08141590089098612</v>
+        <v>0.05041813330022542</v>
       </c>
       <c r="T7">
-        <v>0.0814159008909861</v>
+        <v>0.05041813330022541</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -915,46 +912,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.02378166666666667</v>
+        <v>0.054895</v>
       </c>
       <c r="H8">
-        <v>0.07134500000000001</v>
+        <v>0.164685</v>
       </c>
       <c r="I8">
-        <v>0.04706426387915874</v>
+        <v>0.08880865841952565</v>
       </c>
       <c r="J8">
-        <v>0.04706426387915873</v>
+        <v>0.08880865841952565</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.097952</v>
+        <v>0.02487466666666667</v>
       </c>
       <c r="N8">
-        <v>0.293856</v>
+        <v>0.074624</v>
       </c>
       <c r="O8">
-        <v>0.3005609128437177</v>
+        <v>0.06598982527163412</v>
       </c>
       <c r="P8">
-        <v>0.3005609128437177</v>
+        <v>0.06598982527163411</v>
       </c>
       <c r="Q8">
-        <v>0.002329461813333334</v>
+        <v>0.001365494826666667</v>
       </c>
       <c r="R8">
-        <v>0.02096515632</v>
+        <v>0.01228945344</v>
       </c>
       <c r="S8">
-        <v>0.01414567811383756</v>
+        <v>0.005860467851712736</v>
       </c>
       <c r="T8">
-        <v>0.01414567811383756</v>
+        <v>0.005860467851712734</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -977,16 +974,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.02378166666666667</v>
+        <v>0.054895</v>
       </c>
       <c r="H9">
-        <v>0.07134500000000001</v>
+        <v>0.164685</v>
       </c>
       <c r="I9">
-        <v>0.04706426387915874</v>
+        <v>0.08880865841952565</v>
       </c>
       <c r="J9">
-        <v>0.04706426387915873</v>
+        <v>0.08880865841952565</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -995,28 +992,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.02487466666666667</v>
+        <v>0.04845433333333333</v>
       </c>
       <c r="N9">
-        <v>0.074624</v>
+        <v>0.145363</v>
       </c>
       <c r="O9">
-        <v>0.07632669593287049</v>
+        <v>0.1285441543063967</v>
       </c>
       <c r="P9">
-        <v>0.07632669593287048</v>
+        <v>0.1285441543063967</v>
       </c>
       <c r="Q9">
-        <v>0.0005915610311111112</v>
+        <v>0.002659900628333333</v>
       </c>
       <c r="R9">
-        <v>0.00532404928</v>
+        <v>0.023939105655</v>
       </c>
       <c r="S9">
-        <v>0.003592259758408929</v>
+        <v>0.01141583389162358</v>
       </c>
       <c r="T9">
-        <v>0.003592259758408928</v>
+        <v>0.01141583389162358</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
@@ -1039,16 +1036,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.02378166666666667</v>
+        <v>0.054895</v>
       </c>
       <c r="H10">
-        <v>0.07134500000000001</v>
+        <v>0.164685</v>
       </c>
       <c r="I10">
-        <v>0.04706426387915874</v>
+        <v>0.08880865841952565</v>
       </c>
       <c r="J10">
-        <v>0.04706426387915873</v>
+        <v>0.08880865841952565</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1057,28 +1054,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.033238</v>
+        <v>0.01566266666666667</v>
       </c>
       <c r="N10">
-        <v>0.099714</v>
+        <v>0.046988</v>
       </c>
       <c r="O10">
-        <v>0.1019891745048543</v>
+        <v>0.04155137636502391</v>
       </c>
       <c r="P10">
-        <v>0.1019891745048543</v>
+        <v>0.0415513763650239</v>
       </c>
       <c r="Q10">
-        <v>0.0007904550366666667</v>
+        <v>0.0008598020866666668</v>
       </c>
       <c r="R10">
-        <v>0.00711409533</v>
+        <v>0.00773821878</v>
       </c>
       <c r="S10">
-        <v>0.004800045421714032</v>
+        <v>0.003690121990462559</v>
       </c>
       <c r="T10">
-        <v>0.00480004542171403</v>
+        <v>0.003690121990462559</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,14 +1083,14 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
       <c r="E11">
         <v>1</v>
       </c>
@@ -1101,60 +1098,60 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.02378166666666667</v>
+        <v>0.054895</v>
       </c>
       <c r="H11">
-        <v>0.07134500000000001</v>
+        <v>0.164685</v>
       </c>
       <c r="I11">
-        <v>0.04706426387915874</v>
+        <v>0.08880865841952565</v>
       </c>
       <c r="J11">
-        <v>0.04706426387915873</v>
+        <v>0.08880865841952565</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.1382913333333333</v>
+        <v>0.07395633333333333</v>
       </c>
       <c r="N11">
-        <v>0.414874</v>
+        <v>0.221869</v>
       </c>
       <c r="O11">
-        <v>0.4243401807522206</v>
+        <v>0.1961982276907187</v>
       </c>
       <c r="P11">
-        <v>0.4243401807522205</v>
+        <v>0.1961982276907187</v>
       </c>
       <c r="Q11">
-        <v>0.003288798392222222</v>
+        <v>0.004059832918333333</v>
       </c>
       <c r="R11">
-        <v>0.02959918553</v>
+        <v>0.036538496265</v>
       </c>
       <c r="S11">
-        <v>0.01997125824145243</v>
+        <v>0.01742410138550135</v>
       </c>
       <c r="T11">
-        <v>0.01997125824145242</v>
+        <v>0.01742410138550135</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1163,16 +1160,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.02378166666666667</v>
+        <v>0.08171133333333333</v>
       </c>
       <c r="H12">
-        <v>0.07134500000000001</v>
+        <v>0.245134</v>
       </c>
       <c r="I12">
-        <v>0.04706426387915874</v>
+        <v>0.1321918916295473</v>
       </c>
       <c r="J12">
-        <v>0.04706426387915873</v>
+        <v>0.1321918916295473</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1181,90 +1178,276 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.003697666666666667</v>
+        <v>0.213999</v>
       </c>
       <c r="N12">
-        <v>0.011093</v>
+        <v>0.641997</v>
       </c>
       <c r="O12">
-        <v>0.01134610899956224</v>
+        <v>0.5677164163662266</v>
       </c>
       <c r="P12">
-        <v>0.01134610899956223</v>
+        <v>0.5677164163662265</v>
       </c>
       <c r="Q12">
-        <v>8.793667611111113E-05</v>
+        <v>0.017486143622</v>
       </c>
       <c r="R12">
-        <v>0.0007914300850000001</v>
+        <v>0.157375292598</v>
       </c>
       <c r="S12">
-        <v>0.0005339962679570949</v>
+        <v>0.0750475069885992</v>
       </c>
       <c r="T12">
-        <v>0.0005339962679570947</v>
+        <v>0.07504750698859919</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.08171133333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.245134</v>
+      </c>
+      <c r="I13">
+        <v>0.1321918916295473</v>
+      </c>
+      <c r="J13">
+        <v>0.1321918916295473</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.02487466666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.074624</v>
+      </c>
+      <c r="O13">
+        <v>0.06598982527163412</v>
+      </c>
+      <c r="P13">
+        <v>0.06598982527163411</v>
+      </c>
+      <c r="Q13">
+        <v>0.002032542179555555</v>
+      </c>
+      <c r="R13">
+        <v>0.018292879616</v>
+      </c>
+      <c r="S13">
+        <v>0.008723319830960622</v>
+      </c>
+      <c r="T13">
+        <v>0.00872331983096062</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.08171133333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.245134</v>
+      </c>
+      <c r="I14">
+        <v>0.1321918916295473</v>
+      </c>
+      <c r="J14">
+        <v>0.1321918916295473</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.04845433333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.145363</v>
+      </c>
+      <c r="O14">
+        <v>0.1285441543063967</v>
+      </c>
+      <c r="P14">
+        <v>0.1285441543063967</v>
+      </c>
+      <c r="Q14">
+        <v>0.003959268182444444</v>
+      </c>
+      <c r="R14">
+        <v>0.035633413642</v>
+      </c>
+      <c r="S14">
+        <v>0.01699249491568301</v>
+      </c>
+      <c r="T14">
+        <v>0.01699249491568301</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.08171133333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.245134</v>
+      </c>
+      <c r="I15">
+        <v>0.1321918916295473</v>
+      </c>
+      <c r="J15">
+        <v>0.1321918916295473</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.01566266666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.046988</v>
+      </c>
+      <c r="O15">
+        <v>0.04155137636502391</v>
+      </c>
+      <c r="P15">
+        <v>0.0415513763650239</v>
+      </c>
+      <c r="Q15">
+        <v>0.001279817376888889</v>
+      </c>
+      <c r="R15">
+        <v>0.011518356392</v>
+      </c>
+      <c r="S15">
+        <v>0.005492755041503775</v>
+      </c>
+      <c r="T15">
+        <v>0.005492755041503774</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B16" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.02378166666666667</v>
-      </c>
-      <c r="H13">
-        <v>0.07134500000000001</v>
-      </c>
-      <c r="I13">
-        <v>0.04706426387915874</v>
-      </c>
-      <c r="J13">
-        <v>0.04706426387915873</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.02784366666666667</v>
-      </c>
-      <c r="N13">
-        <v>0.08353099999999999</v>
-      </c>
-      <c r="O13">
-        <v>0.08543692696677482</v>
-      </c>
-      <c r="P13">
-        <v>0.08543692696677481</v>
-      </c>
-      <c r="Q13">
-        <v>0.0006621687994444445</v>
-      </c>
-      <c r="R13">
-        <v>0.005959519195</v>
-      </c>
-      <c r="S13">
-        <v>0.004021026075788704</v>
-      </c>
-      <c r="T13">
-        <v>0.004021026075788702</v>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.08171133333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.245134</v>
+      </c>
+      <c r="I16">
+        <v>0.1321918916295473</v>
+      </c>
+      <c r="J16">
+        <v>0.1321918916295473</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.07395633333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.221869</v>
+      </c>
+      <c r="O16">
+        <v>0.1961982276907187</v>
+      </c>
+      <c r="P16">
+        <v>0.1961982276907187</v>
+      </c>
+      <c r="Q16">
+        <v>0.006043070605111111</v>
+      </c>
+      <c r="R16">
+        <v>0.054387635446</v>
+      </c>
+      <c r="S16">
+        <v>0.02593581485280073</v>
+      </c>
+      <c r="T16">
+        <v>0.02593581485280073</v>
       </c>
     </row>
   </sheetData>
